--- a/vildmad data/vildmad data.xlsx
+++ b/vildmad data/vildmad data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavbogh/Documents/MMD/2sem/T7/vildMad/vildmad data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D61506-4174-AA46-A9AB-13EB14C786F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0824DF-A969-2546-BEB8-54F983A68466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{95C2E3C9-5F3A-7240-8638-3C7C791FCADC}"/>
   </bookViews>
@@ -1303,10 +1303,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1329,13 +1337,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1654,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01C3D2D-4AAD-6C49-BDD2-40B4A85C904C}">
   <dimension ref="A1:DZ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2220,7 +2231,7 @@
       <c r="O2" t="s">
         <v>135</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>136</v>
       </c>
       <c r="Q2">
@@ -2318,7 +2329,7 @@
       <c r="O3" t="s">
         <v>150</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="Q3">
@@ -2565,7 +2576,7 @@
       <c r="AF5" t="s">
         <v>153</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="1" t="s">
         <v>166</v>
       </c>
       <c r="AH5">
@@ -16128,6 +16139,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{5091F195-C63C-1642-B0CC-5463BE31270B}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{D3702E2A-5939-CB49-98E3-C59715A9AE9D}"/>
+    <hyperlink ref="AG5" r:id="rId3" xr:uid="{BAB5046F-876A-E648-B196-145754C7FBAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>